--- a/dummy_data_value.xlsx
+++ b/dummy_data_value.xlsx
@@ -8,26 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\LeBow-MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CFD709-00D4-4DC3-B582-E90BE995A378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32253A24-CC53-4A14-9D36-07535F89267C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="3345" windowWidth="13740" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="1560" windowWidth="14820" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeBow+Leadership+Development+Su" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -3906,7 +3894,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3914,316 +3902,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -4231,157 +3919,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4391,49 +3931,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5982,7 +5481,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:409" s="1" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:409" s="1" customFormat="1" ht="255" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>401</v>
       </c>
@@ -7211,7 +6710,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="3" spans="1:409" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:409" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>807</v>
       </c>
@@ -8442,7 +7941,7 @@
     </row>
     <row r="4" spans="1:409" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45525.371782407405</v>
+        <v>45525.371782407397</v>
       </c>
       <c r="B4" s="2">
         <v>45525.376018518517</v>
@@ -9389,7 +8888,7 @@
     </row>
     <row r="5" spans="1:409" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45525.443715277775</v>
+        <v>45525.443715277783</v>
       </c>
       <c r="B5" s="2">
         <v>45525.449062500003</v>
@@ -10627,7 +10126,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>45525.451261574075</v>
+        <v>45525.451261574082</v>
       </c>
       <c r="I6" t="s">
         <v>1252</v>
@@ -11529,7 +11028,7 @@
         <v>45525.637442129628</v>
       </c>
       <c r="B7" s="2">
-        <v>45525.642280092594</v>
+        <v>45525.642280092587</v>
       </c>
       <c r="C7">
         <v>0</v>

--- a/dummy_data_value.xlsx
+++ b/dummy_data_value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\LeBow-MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32253A24-CC53-4A14-9D36-07535F89267C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885E2D92-F259-473A-929B-09E877814956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="1560" windowWidth="14820" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6795" yWindow="4365" windowWidth="16605" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeBow+Leadership+Development+Su" sheetId="1" r:id="rId1"/>
@@ -4246,8 +4246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:OS7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="IG1" workbookViewId="0">
-      <selection activeCell="IL1" sqref="IL1"/>
+    <sheetView tabSelected="1" topLeftCell="EF1" workbookViewId="0">
+      <selection activeCell="EH2" sqref="EH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
